--- a/App/data/rollover project.xlsx
+++ b/App/data/rollover project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\FYP system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\Desktop\Coding\Coding Projects\Github Repo\OOP-FYP-Management-Project\App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD87BB-8C6E-4C84-B41F-CD3CA9695C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF10F8E-C860-4142-BB12-4CC249674E0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Supervisor</t>
   </si>
@@ -112,13 +112,19 @@
   </si>
   <si>
     <t>Graph-based Deep Models for Image Semantic Segmentation</t>
+  </si>
+  <si>
+    <t>EUGE</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +137,21 @@
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="64"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,10 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,23 +471,29 @@
     <col min="2" max="2" width="74.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -480,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -488,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -496,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -504,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -512,7 +533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -520,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -528,7 +549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -536,7 +557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -544,7 +565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -552,7 +573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -560,7 +581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -568,7 +589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -576,7 +597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
